--- a/example/example_out.xlsx
+++ b/example/example_out.xlsx
@@ -411,17 +411,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3123</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +433,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -455,17 +455,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3123</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -521,17 +521,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -609,17 +609,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -631,7 +631,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -675,17 +675,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -697,17 +697,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -719,7 +719,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -741,17 +741,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -763,7 +763,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -785,17 +785,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +807,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -851,17 +851,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -873,7 +873,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -895,17 +895,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -917,7 +917,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -961,17 +961,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -983,7 +983,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1005,17 +1005,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1137,17 +1137,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1269,17 +1269,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1401,17 +1401,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1511,17 +1511,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
         <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1687,17 +1687,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1797,17 +1797,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1885,17 +1885,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1907,17 +1907,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1995,17 +1995,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>6763</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6763</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2281,17 +2281,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1236</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2325,17 +2325,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="E89" t="n">
         <v>6</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2479,17 +2479,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>2566</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2523,17 +2523,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2356</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2633,17 +2633,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2677,17 +2677,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2809,17 +2809,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
